--- a/documents/프로젝트 진행 일정.xlsx
+++ b/documents/프로젝트 진행 일정.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minji/Documents/GitHub/harnamana_cardon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minji/Documents/GitHub/harnamana_cardon/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E76F6EA-87EC-4646-BCEC-C56DB267B909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635D01FA-3D02-944E-AAC8-82F78C29F497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="620" windowWidth="26940" windowHeight="14940" xr2:uid="{08561622-AAD1-D442-ADF4-C6CBFC07F436}"/>
+    <workbookView xWindow="2100" yWindow="680" windowWidth="26940" windowHeight="14940" xr2:uid="{08561622-AAD1-D442-ADF4-C6CBFC07F436}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
   <si>
     <t>SW</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +168,90 @@
   </si>
   <si>
     <t>발표 자료 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="19"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현대오토에버 차량용 임베디드 SW 개발 프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="19"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> WBS</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 수정일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전민지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량용 임베디드 SW 개발 프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추진 일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 Task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수행자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -177,7 +262,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -202,16 +287,63 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="19"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="19"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="19"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -382,17 +514,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -562,53 +683,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -617,50 +820,26 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -668,37 +847,190 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1023,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4399AEE2-DDE2-8B4C-B0D0-A48D7524483A}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1095,680 +1427,580 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="19" thickBot="1">
-      <c r="E2" s="31">
+      <c r="E2" s="12">
         <v>45383</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="13">
         <v>45384</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="13">
         <v>45385</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="13">
         <v>45386</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="13">
         <v>45387</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="13">
         <v>45388</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="13">
         <v>45389</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="13">
         <v>45390</v>
       </c>
-      <c r="M2" s="32">
+      <c r="M2" s="13">
         <v>45391</v>
       </c>
-      <c r="N2" s="32">
+      <c r="N2" s="13">
         <v>45392</v>
       </c>
-      <c r="O2" s="32">
+      <c r="O2" s="13">
         <v>45393</v>
       </c>
-      <c r="P2" s="32">
+      <c r="P2" s="13">
         <v>45394</v>
       </c>
-      <c r="Q2" s="32">
+      <c r="Q2" s="13">
         <v>45395</v>
       </c>
-      <c r="R2" s="32">
+      <c r="R2" s="13">
         <v>45396</v>
       </c>
-      <c r="S2" s="32">
+      <c r="S2" s="13">
         <v>45397</v>
       </c>
-      <c r="T2" s="33">
+      <c r="T2" s="14">
         <v>45398</v>
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="30" t="s">
+      <c r="F3" s="31"/>
+      <c r="Q3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="29"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="18"/>
+      <c r="R3" s="26"/>
+      <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="4" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="O4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="18"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="18"/>
+      <c r="G5" s="36"/>
+      <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="34" t="s">
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="18"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="20"/>
+      <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="E7" s="19"/>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="4" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="18"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="20"/>
+      <c r="T8" s="6"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="4" t="s">
+      <c r="E9" s="7"/>
+      <c r="G9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4" t="s">
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="18"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="22"/>
+      <c r="T9" s="6"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="4" t="s">
+      <c r="E10" s="7"/>
+      <c r="L10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="18"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="20"/>
+      <c r="T10" s="6"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="E11" s="21"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="4" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="N11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="18"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="20"/>
+      <c r="T11" s="6"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="E12" s="19"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="4" t="s">
+      <c r="E12" s="7"/>
+      <c r="O12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="18"/>
+      <c r="P12" s="20"/>
+      <c r="T12" s="6"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="E13" s="19"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="6" t="s">
+      <c r="E13" s="7"/>
+      <c r="O13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="18"/>
+      <c r="P13" s="22"/>
+      <c r="T13" s="6"/>
     </row>
     <row r="14" spans="1:20" ht="19" thickBot="1">
-      <c r="E14" s="22"/>
-      <c r="F14" s="23" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="27"/>
-    </row>
-    <row r="15" spans="1:20" ht="19" thickBot="1">
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="E16" s="14">
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="11"/>
+    </row>
+    <row r="15" spans="1:20" ht="19" thickBot="1"/>
+    <row r="16" spans="1:20" ht="25" customHeight="1">
+      <c r="E16" s="4">
         <v>45383</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="5">
         <v>45384</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="16">
         <v>45385</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="16">
         <v>45386</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="16">
         <v>45387</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="16">
         <v>45388</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="16">
         <v>45389</v>
       </c>
-      <c r="L16" s="35">
+      <c r="L16" s="16">
         <v>45390</v>
       </c>
-      <c r="M16" s="35">
+      <c r="M16" s="16">
         <v>45391</v>
       </c>
-      <c r="N16" s="35">
+      <c r="N16" s="16">
         <v>45392</v>
       </c>
-      <c r="O16" s="35">
+      <c r="O16" s="16">
         <v>45393</v>
       </c>
-      <c r="P16" s="35">
+      <c r="P16" s="16">
         <v>45394</v>
       </c>
-      <c r="Q16" s="35">
+      <c r="Q16" s="16">
         <v>45395</v>
       </c>
-      <c r="R16" s="35">
+      <c r="R16" s="16">
         <v>45396</v>
       </c>
-      <c r="S16" s="35">
+      <c r="S16" s="16">
         <v>45397</v>
       </c>
-      <c r="T16" s="36">
+      <c r="T16" s="17">
         <v>45398</v>
       </c>
     </row>
-    <row r="17" spans="5:20">
-      <c r="E17" s="28" t="s">
+    <row r="17" spans="5:20" ht="25" customHeight="1">
+      <c r="E17" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="4" t="s">
+      <c r="F17" s="31"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="R17" s="8"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="16"/>
-    </row>
-    <row r="18" spans="5:20">
-      <c r="E18" s="17" t="s">
+      <c r="R17" s="44"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="5:20" ht="25" customHeight="1">
+      <c r="E18" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="41" t="s">
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="R18" s="43"/>
-      <c r="T18" s="18"/>
-    </row>
-    <row r="19" spans="5:20">
-      <c r="E19" s="20" t="s">
+      <c r="R18" s="54"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="6"/>
+    </row>
+    <row r="19" spans="5:20" ht="25" customHeight="1">
+      <c r="E19" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="4" t="s">
+      <c r="F19" s="39"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="18"/>
-    </row>
-    <row r="20" spans="5:20">
-      <c r="E20" s="39"/>
-      <c r="F20" s="4" t="s">
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" spans="5:20" ht="25" customHeight="1">
+      <c r="E20" s="7"/>
+      <c r="F20" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="6" t="s">
+      <c r="G20" s="47"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="18"/>
-    </row>
-    <row r="21" spans="5:20">
-      <c r="E21" s="19"/>
-      <c r="F21" s="6" t="s">
+      <c r="P20" s="36"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" spans="5:20" ht="25" customHeight="1">
+      <c r="E21" s="7"/>
+      <c r="F21" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="4" t="s">
+      <c r="G21" s="36"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="8"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="18"/>
-    </row>
-    <row r="22" spans="5:20">
-      <c r="E22" s="19"/>
-      <c r="F22" s="4" t="s">
+      <c r="O21" s="33"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="6"/>
+    </row>
+    <row r="22" spans="5:20" ht="25" customHeight="1">
+      <c r="E22" s="7"/>
+      <c r="F22" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="4" t="s">
+      <c r="G22" s="49"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="O22" s="8"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="18"/>
-    </row>
-    <row r="23" spans="5:20">
-      <c r="E23" s="19"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="4" t="s">
+      <c r="O22" s="47"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="5:20" ht="25" customHeight="1">
+      <c r="E23" s="7"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="34" t="s">
+      <c r="H23" s="41"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="K23" s="37"/>
-      <c r="L23" s="4" t="s">
+      <c r="K23" s="56"/>
+      <c r="L23" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="18"/>
-    </row>
-    <row r="24" spans="5:20">
-      <c r="E24" s="19"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="4" t="s">
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="5:20" ht="25" customHeight="1">
+      <c r="E24" s="7"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="4" t="s">
+      <c r="H24" s="47"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="5"/>
-      <c r="T24" s="18"/>
-    </row>
-    <row r="25" spans="5:20">
-      <c r="E25" s="21"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="4" t="s">
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="6"/>
+    </row>
+    <row r="25" spans="5:20" ht="25" customHeight="1">
+      <c r="E25" s="8"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="18"/>
-    </row>
-    <row r="26" spans="5:20">
-      <c r="E26" s="19"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="4" t="s">
+      <c r="J25" s="47"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="5:20" ht="25" customHeight="1">
+      <c r="E26" s="7"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="18"/>
-    </row>
-    <row r="27" spans="5:20">
-      <c r="E27" s="19"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="18"/>
-    </row>
-    <row r="28" spans="5:20" ht="19" thickBot="1">
-      <c r="E28" s="22"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="27"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="5:20" ht="25" customHeight="1">
+      <c r="E27" s="7"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="6"/>
+    </row>
+    <row r="28" spans="5:20" ht="25" customHeight="1" thickBot="1">
+      <c r="E28" s="9"/>
+      <c r="F28" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="I25:O25"/>
-    <mergeCell ref="K26:O26"/>
-    <mergeCell ref="K24:P24"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="F22:H22"/>
+  <mergeCells count="37">
+    <mergeCell ref="F28:R28"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="O4:S4"/>
     <mergeCell ref="K6:O6"/>
@@ -1785,11 +2017,251 @@
     <mergeCell ref="I8:O8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="K26:O26"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="I25:O25"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="Q17:S17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E06C42C-FD92-114C-8EDE-6F5E6D429DE6}">
+  <dimension ref="B1:L24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="2:12" ht="19" thickBot="1"/>
+    <row r="2" spans="2:12" ht="30" thickBot="1">
+      <c r="B2" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
+    </row>
+    <row r="3" spans="2:12" ht="19" thickBot="1"/>
+    <row r="4" spans="2:12">
+      <c r="B4" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="67"/>
+      <c r="I4" s="69"/>
+    </row>
+    <row r="5" spans="2:12" ht="19" thickBot="1">
+      <c r="B5" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="71">
+        <v>45383</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="74"/>
+    </row>
+    <row r="8" spans="2:12" ht="36" customHeight="1">
+      <c r="B8" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+    </row>
+    <row r="17" spans="5:9">
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+    </row>
+    <row r="18" spans="5:9">
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+    </row>
+    <row r="19" spans="5:9">
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+    </row>
+    <row r="20" spans="5:9">
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+    </row>
+    <row r="21" spans="5:9">
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+    </row>
+    <row r="22" spans="5:9">
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+    </row>
+    <row r="23" spans="5:9">
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+    </row>
+    <row r="24" spans="5:9">
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
